--- a/LR3/table_1_2.xlsx
+++ b/LR3/table_1_2.xlsx
@@ -158,7 +158,7 @@
         <color rgb="000000" tint="0"/>
         <sz val="12"/>
       </rPr>
-      <t>Пени за 1 день</t>
+      <t>Пени за 1 день, руб.</t>
     </r>
   </si>
   <si>

--- a/LR3/table_1_2.xlsx
+++ b/LR3/table_1_2.xlsx
@@ -224,9 +224,6 @@
     <t>Коканов</t>
   </si>
   <si>
-    <t>Кузин</t>
-  </si>
-  <si>
     <t>Мохамед</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Куропаткин 2</t>
   </si>
   <si>
     <t>Общая сумма, руб.</t>
@@ -2069,12 +2069,12 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D33</f>
-        <v>2.2</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
+        <v>1.1</v>
       </c>
       <c r="E34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C34*D34</f>
-        <v>119.9</v>
+        <v>59.95</v>
       </c>
       <c r="F34" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F33</f>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="K34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E34+J34</f>
-        <v>349.9</v>
+        <v>289.95</v>
       </c>
     </row>
     <row outlineLevel="0" r="35">
@@ -2114,7 +2114,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D4/2</f>
         <v>1.1</v>
       </c>
       <c r="E35" s="1" t="n">
@@ -2159,7 +2159,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D4/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D5/2</f>
         <v>1.1</v>
       </c>
       <c r="E36" s="1" t="n">
@@ -2204,7 +2204,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D5/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D6/2</f>
         <v>1.1</v>
       </c>
       <c r="E37" s="1" t="n">
@@ -2249,7 +2249,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D6/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D7/2</f>
         <v>1.1</v>
       </c>
       <c r="E38" s="1" t="n">
@@ -2283,6 +2283,7 @@
     </row>
     <row outlineLevel="0" r="39">
       <c r="C39" s="1" t="n"/>
+      <c r="E39" t="n"/>
       <c r="H39" s="1" t="n"/>
       <c r="K39" s="1" t="n"/>
     </row>
@@ -2291,8 +2292,8 @@
         <v>47</v>
       </c>
       <c r="C40" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">FLOOR(SUM(K3:K38), 1)</f>
-        <v>8396</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">FLOOR(SUM(K3:K37), 1)</f>
+        <v>8009</v>
       </c>
       <c r="D40" s="1" t="n"/>
     </row>
@@ -2301,8 +2302,8 @@
         <v>48</v>
       </c>
       <c r="C41" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">AVERAGE(C3:C38)</f>
-        <v>61.25</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">AVERAGE(C3:C37)</f>
+        <v>61.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="42">
@@ -2310,8 +2311,8 @@
         <v>49</v>
       </c>
       <c r="C42" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(H3:H38)</f>
-        <v>27</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(H3:H37)</f>
+        <v>26</v>
       </c>
     </row>
     <row outlineLevel="0" r="43">
@@ -2319,8 +2320,8 @@
         <v>50</v>
       </c>
       <c r="C43" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3:K38)</f>
-        <v>349.9</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3:K37)</f>
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_2.xlsx
+++ b/LR3/table_1_2.xlsx
@@ -2283,7 +2283,7 @@
     </row>
     <row outlineLevel="0" r="39">
       <c r="C39" s="1" t="n"/>
-      <c r="E39" t="n"/>
+      <c r="E39" s="0" t="n"/>
       <c r="H39" s="1" t="n"/>
       <c r="K39" s="1" t="n"/>
     </row>
@@ -2292,8 +2292,8 @@
         <v>47</v>
       </c>
       <c r="C40" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">FLOOR(SUM(K3:K37), 1)</f>
-        <v>8009</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">FLOOR(SUM(K3:K38), 1)</f>
+        <v>8336</v>
       </c>
       <c r="D40" s="1" t="n"/>
     </row>
@@ -2302,8 +2302,8 @@
         <v>48</v>
       </c>
       <c r="C41" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">AVERAGE(C3:C37)</f>
-        <v>61.5</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">AVERAGE(C3:C38)</f>
+        <v>61.25</v>
       </c>
     </row>
     <row outlineLevel="0" r="42">
@@ -2311,8 +2311,8 @@
         <v>49</v>
       </c>
       <c r="C42" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(H3:H37)</f>
-        <v>26</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(H3:H38)</f>
+        <v>27</v>
       </c>
     </row>
     <row outlineLevel="0" r="43">
@@ -2320,7 +2320,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3:K37)</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3:K38)</f>
         <v>341</v>
       </c>
     </row>

--- a/LR3/table_1_2.xlsx
+++ b/LR3/table_1_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Загрузки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D51E07-B35B-4DCA-A39C-D7CAA24FFB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D759513D-B4F0-483C-B600-A6F92BA0A1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,7 +245,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,7 +564,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_2.xlsx
+++ b/LR3/table_1_2.xlsx
@@ -621,7 +621,7 @@
     <col customWidth="true" hidden="false" max="6" min="6" outlineLevel="0" style="1" width="12.7716190573824"/>
     <col customWidth="true" hidden="false" max="7" min="7" outlineLevel="0" style="1" width="12.5055436603536"/>
     <col customWidth="true" hidden="false" max="8" min="8" outlineLevel="0" style="1" width="16.8514418118239"/>
-    <col customWidth="true" hidden="false" max="9" min="9" outlineLevel="0" style="1" width="14.9889140326223"/>
+    <col customWidth="true" hidden="false" max="9" min="9" outlineLevel="0" style="1" width="18.3592023949871"/>
     <col customWidth="true" hidden="false" max="10" min="10" outlineLevel="0" style="1" width="12.2394682633248"/>
     <col customWidth="true" hidden="false" max="11" min="11" outlineLevel="0" style="1" width="11.8847010672864"/>
   </cols>
@@ -2069,12 +2069,12 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
-        <v>1.1</v>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D33</f>
+        <v>2.2</v>
       </c>
       <c r="E34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C34*D34</f>
-        <v>59.95</v>
+        <v>119.9</v>
       </c>
       <c r="F34" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F33</f>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="K34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">E34+J34</f>
-        <v>289.95</v>
+        <v>349.9</v>
       </c>
     </row>
     <row outlineLevel="0" r="35">
@@ -2114,7 +2114,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D4/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
         <v>1.1</v>
       </c>
       <c r="E35" s="1" t="n">
@@ -2159,7 +2159,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D5/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D4/2</f>
         <v>1.1</v>
       </c>
       <c r="E36" s="1" t="n">
@@ -2204,7 +2204,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D6/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D5/2</f>
         <v>1.1</v>
       </c>
       <c r="E37" s="1" t="n">
@@ -2249,7 +2249,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D7/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D6/2</f>
         <v>1.1</v>
       </c>
       <c r="E38" s="1" t="n">
@@ -2283,6 +2283,7 @@
     </row>
     <row outlineLevel="0" r="39">
       <c r="C39" s="1" t="n"/>
+      <c r="D39" s="1" t="n"/>
       <c r="E39" s="0" t="n"/>
       <c r="H39" s="1" t="n"/>
       <c r="K39" s="1" t="n"/>
@@ -2293,7 +2294,7 @@
       </c>
       <c r="C40" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">FLOOR(SUM(K3:K38), 1)</f>
-        <v>8336</v>
+        <v>8396</v>
       </c>
       <c r="D40" s="1" t="n"/>
     </row>
@@ -2321,7 +2322,7 @@
       </c>
       <c r="C43" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3:K38)</f>
-        <v>341</v>
+        <v>349.9</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_2.xlsx
+++ b/LR3/table_1_2.xlsx
@@ -11,6 +11,7 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
+  <si/>
   <si>
     <r>
       <rPr>
@@ -290,10 +291,10 @@
     <t>Шаймарданова</t>
   </si>
   <si>
+    <t>Кузин</t>
+  </si>
+  <si>
     <t>Куропаткин 1</t>
-  </si>
-  <si>
-    <t>Куропаткин 2</t>
   </si>
   <si>
     <t>Общая сумма, руб.</t>
@@ -379,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="2" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
@@ -392,6 +393,12 @@
     </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="14" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" borderId="0" fillId="0" fontId="0" quotePrefix="false">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,40 +637,46 @@
       <c r="A1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row outlineLevel="0" r="3">
@@ -671,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>70</v>
@@ -712,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C3-0.5</f>
@@ -757,7 +770,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C4-0.5</f>
@@ -802,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C5-0.5</f>
@@ -847,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C6-0.5</f>
@@ -892,7 +905,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C7-0.5</f>
@@ -937,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C8-0.5</f>
@@ -982,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C9-0.5</f>
@@ -1027,7 +1040,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C10-0.5</f>
@@ -1072,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C11-0.5</f>
@@ -1117,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C12-0.5</f>
@@ -1162,7 +1175,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C13-0.5</f>
@@ -1207,7 +1220,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C14-0.5</f>
@@ -1252,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C15-0.5</f>
@@ -1297,7 +1310,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C16-0.5</f>
@@ -1342,7 +1355,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C17-0.5</f>
@@ -1387,7 +1400,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C18-0.5</f>
@@ -1432,7 +1445,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C19-0.5</f>
@@ -1477,7 +1490,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C20-0.5</f>
@@ -1522,7 +1535,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C21-0.5</f>
@@ -1567,7 +1580,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C22-0.5</f>
@@ -1612,7 +1625,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C23-0.5</f>
@@ -1657,7 +1670,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C24-0.5</f>
@@ -1702,7 +1715,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C25-0.5</f>
@@ -1747,7 +1760,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C26-0.5</f>
@@ -1792,7 +1805,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C27-0.5</f>
@@ -1837,7 +1850,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C28-0.5</f>
@@ -1882,7 +1895,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C29-0.5</f>
@@ -1927,7 +1940,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C30-0.5</f>
@@ -1972,7 +1985,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C31-0.5</f>
@@ -2017,7 +2030,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C32-0.5</f>
@@ -2062,7 +2075,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C33-0.5</f>
@@ -2107,7 +2120,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C34-0.5</f>
@@ -2152,7 +2165,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C35-0.5</f>
@@ -2196,8 +2209,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>45</v>
+      <c r="B37" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C36-0.5</f>
@@ -2242,7 +2255,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C37-0.5</f>
@@ -2284,13 +2297,13 @@
     <row outlineLevel="0" r="39">
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="n"/>
-      <c r="E39" s="0" t="n"/>
+      <c r="E39" s="6" t="n"/>
       <c r="H39" s="1" t="n"/>
       <c r="K39" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="40">
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">FLOOR(SUM(K3:K38), 1)</f>
@@ -2300,7 +2313,7 @@
     </row>
     <row outlineLevel="0" r="41">
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">AVERAGE(C3:C38)</f>
@@ -2309,7 +2322,7 @@
     </row>
     <row outlineLevel="0" r="42">
       <c r="B42" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(H3:H38)</f>
@@ -2318,7 +2331,7 @@
     </row>
     <row outlineLevel="0" r="43">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3:K38)</f>

--- a/LR3/table_1_2.xlsx
+++ b/LR3/table_1_2.xlsx
@@ -11,7 +11,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
-  <si/>
   <si>
     <r>
       <rPr>
@@ -326,7 +325,7 @@
   <numFmts>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <color theme="1" tint="0"/>
@@ -358,6 +357,20 @@
       <strike val="false"/>
       <color rgb="282C34" tint="0"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="false"/>
+      <i val="false"/>
+      <color theme="1" tint="0"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="false"/>
+      <i val="false"/>
+      <color theme="1" tint="0"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -394,10 +407,10 @@
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="14" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" borderId="0" fillId="0" fontId="0" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="5" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -621,7 +634,7 @@
   <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="9.14062530925693" defaultRowHeight="15" zeroHeight="false"/>
   <cols>
     <col customWidth="true" hidden="false" max="1" min="1" outlineLevel="0" style="1" width="13.2150780524304"/>
-    <col customWidth="true" hidden="false" max="2" min="2" outlineLevel="0" style="1" width="32.1064312414751"/>
+    <col customWidth="true" hidden="false" max="2" min="2" outlineLevel="0" style="1" width="34.5898016137439"/>
     <col customWidth="true" hidden="false" max="3" min="3" outlineLevel="0" style="1" width="14.7228386355935"/>
     <col customWidth="true" hidden="false" max="4" min="4" outlineLevel="0" style="1" width="16.7627500128143"/>
     <col customWidth="true" hidden="false" max="5" min="5" outlineLevel="0" style="1" width="11.973392866296"/>
@@ -637,46 +650,42 @@
       <c r="A1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="D1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row outlineLevel="0" r="3">
@@ -684,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>70</v>
@@ -725,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C3-0.5</f>
@@ -770,7 +779,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C4-0.5</f>
@@ -815,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C5-0.5</f>
@@ -860,7 +869,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C6-0.5</f>
@@ -905,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C7-0.5</f>
@@ -950,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C8-0.5</f>
@@ -995,7 +1004,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C9-0.5</f>
@@ -1040,7 +1049,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C10-0.5</f>
@@ -1085,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C11-0.5</f>
@@ -1130,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C12-0.5</f>
@@ -1175,7 +1184,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C13-0.5</f>
@@ -1220,7 +1229,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C14-0.5</f>
@@ -1265,7 +1274,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C15-0.5</f>
@@ -1310,7 +1319,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C16-0.5</f>
@@ -1355,7 +1364,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C17-0.5</f>
@@ -1400,7 +1409,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C18-0.5</f>
@@ -1445,7 +1454,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C19-0.5</f>
@@ -1490,7 +1499,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C20-0.5</f>
@@ -1535,7 +1544,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C21-0.5</f>
@@ -1580,7 +1589,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C22-0.5</f>
@@ -1625,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C23-0.5</f>
@@ -1670,7 +1679,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C24-0.5</f>
@@ -1715,7 +1724,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C25-0.5</f>
@@ -1760,7 +1769,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C26-0.5</f>
@@ -1805,7 +1814,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C27-0.5</f>
@@ -1850,7 +1859,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C28-0.5</f>
@@ -1895,7 +1904,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C29-0.5</f>
@@ -1940,7 +1949,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C30-0.5</f>
@@ -1985,7 +1994,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C31-0.5</f>
@@ -2030,7 +2039,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C32-0.5</f>
@@ -2075,7 +2084,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C33-0.5</f>
@@ -2120,7 +2129,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C34-0.5</f>
@@ -2165,7 +2174,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C35-0.5</f>
@@ -2210,7 +2219,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C36-0.5</f>
@@ -2255,7 +2264,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C37-0.5</f>
@@ -2303,7 +2312,7 @@
     </row>
     <row outlineLevel="0" r="40">
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">FLOOR(SUM(K3:K38), 1)</f>
@@ -2313,7 +2322,7 @@
     </row>
     <row outlineLevel="0" r="41">
       <c r="B41" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">AVERAGE(C3:C38)</f>
@@ -2322,7 +2331,7 @@
     </row>
     <row outlineLevel="0" r="42">
       <c r="B42" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(H3:H38)</f>
@@ -2331,7 +2340,7 @@
     </row>
     <row outlineLevel="0" r="43">
       <c r="B43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3:K38)</f>

--- a/LR3/table_1_2.xlsx
+++ b/LR3/table_1_2.xlsx
@@ -149,17 +149,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Пени за 1 день, руб.</t>
-    </r>
+    <t>Пени за 1 день, руб.</t>
   </si>
   <si>
     <r>
@@ -325,7 +315,7 @@
   <numFmts>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <color theme="1" tint="0"/>
@@ -356,6 +346,11 @@
       <i val="false"/>
       <strike val="false"/>
       <color rgb="282C34" tint="0"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <color theme="1" tint="0"/>
       <sz val="12"/>
     </font>
     <font>
@@ -393,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
     <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="2" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
@@ -404,13 +399,16 @@
     <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="4" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="14" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="5" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="6" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -678,7 +676,7 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -706,17 +704,17 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C3*D3</f>
         <v>154</v>
       </c>
-      <c r="F3" s="4" t="n">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="4" t="n">
+      <c r="F3" s="5" t="n">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="5" t="n">
         <v>44805</v>
       </c>
       <c r="H3" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G3&gt;F3, G3-F3, 0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="4" t="n">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="n">
@@ -748,11 +746,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C4*D4</f>
         <v>152.9</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G3+1</f>
         <v>44806</v>
       </c>
@@ -760,8 +758,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G4&gt;F4, G4-F4, 0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I3</f>
+      <c r="I4" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1" t="n">
@@ -793,11 +791,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C5*D5</f>
         <v>151.8</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G4+1</f>
         <v>44807</v>
       </c>
@@ -805,8 +803,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G5&gt;F5, G5-F5, 0)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I4</f>
+      <c r="I5" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1" t="n">
@@ -838,11 +836,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C6*D6</f>
         <v>150.70000000000002</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F5</f>
         <v>44813</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G5+1</f>
         <v>44808</v>
       </c>
@@ -850,8 +848,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G6&gt;F6, G6-F6, 0)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I5</f>
+      <c r="I6" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J6" s="1" t="n">
@@ -883,11 +881,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C7*D7</f>
         <v>149.60000000000002</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F6</f>
         <v>44813</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G6+1</f>
         <v>44809</v>
       </c>
@@ -895,8 +893,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G7&gt;F7, G7-F7, 0)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I6</f>
+      <c r="I7" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J7" s="1" t="n">
@@ -928,11 +926,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C8*D8</f>
         <v>148.5</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F7</f>
         <v>44813</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G7+1</f>
         <v>44810</v>
       </c>
@@ -940,8 +938,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G8&gt;F8, G8-F8, 0)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I7</f>
+      <c r="I8" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J8" s="1" t="n">
@@ -973,11 +971,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C9*D9</f>
         <v>147.4</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F8</f>
         <v>44813</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G8+1</f>
         <v>44811</v>
       </c>
@@ -985,8 +983,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G9&gt;F9, G9-F9, 0)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I8</f>
+      <c r="I9" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J9" s="1" t="n">
@@ -1018,11 +1016,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C10*D10</f>
         <v>146.3</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F9</f>
         <v>44813</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G9+1</f>
         <v>44812</v>
       </c>
@@ -1030,8 +1028,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G10&gt;F10, G10-F10, 0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I9</f>
+      <c r="I10" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J10" s="1" t="n">
@@ -1063,11 +1061,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C11*D11</f>
         <v>145.20000000000002</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F10</f>
         <v>44813</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G10+1</f>
         <v>44813</v>
       </c>
@@ -1075,8 +1073,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G11&gt;F11, G11-F11, 0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I10</f>
+      <c r="I11" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J11" s="1" t="n">
@@ -1108,11 +1106,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C12*D12</f>
         <v>144.10000000000002</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F11</f>
         <v>44813</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G11+1</f>
         <v>44814</v>
       </c>
@@ -1120,8 +1118,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G12&gt;F12, G12-F12, 0)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I11</f>
+      <c r="I12" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J12" s="1" t="n">
@@ -1153,11 +1151,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C13*D13</f>
         <v>143</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F12</f>
         <v>44813</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G12+1</f>
         <v>44815</v>
       </c>
@@ -1165,8 +1163,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G13&gt;F13, G13-F13, 0)</f>
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I12</f>
+      <c r="I13" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J13" s="1" t="n">
@@ -1198,11 +1196,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C14*D14</f>
         <v>141.9</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F13</f>
         <v>44813</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G13+1</f>
         <v>44816</v>
       </c>
@@ -1210,8 +1208,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G14&gt;F14, G14-F14, 0)</f>
         <v>3</v>
       </c>
-      <c r="I14" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I13</f>
+      <c r="I14" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J14" s="1" t="n">
@@ -1243,11 +1241,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C15*D15</f>
         <v>140.8</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F14</f>
         <v>44813</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G14+1</f>
         <v>44817</v>
       </c>
@@ -1255,8 +1253,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G15&gt;F15, G15-F15, 0)</f>
         <v>4</v>
       </c>
-      <c r="I15" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I14</f>
+      <c r="I15" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J15" s="1" t="n">
@@ -1288,11 +1286,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C16*D16</f>
         <v>139.70000000000002</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F15</f>
         <v>44813</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G15+1</f>
         <v>44818</v>
       </c>
@@ -1300,8 +1298,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G16&gt;F16, G16-F16, 0)</f>
         <v>5</v>
       </c>
-      <c r="I16" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I15</f>
+      <c r="I16" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J16" s="1" t="n">
@@ -1333,11 +1331,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C17*D17</f>
         <v>138.60000000000002</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F16</f>
         <v>44813</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G16+1</f>
         <v>44819</v>
       </c>
@@ -1345,8 +1343,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G17&gt;F17, G17-F17, 0)</f>
         <v>6</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I16</f>
+      <c r="I17" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J17" s="1" t="n">
@@ -1378,11 +1376,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C18*D18</f>
         <v>137.5</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F17</f>
         <v>44813</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G17+1</f>
         <v>44820</v>
       </c>
@@ -1390,8 +1388,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G18&gt;F18, G18-F18, 0)</f>
         <v>7</v>
       </c>
-      <c r="I18" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I17</f>
+      <c r="I18" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J18" s="1" t="n">
@@ -1423,11 +1421,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C19*D19</f>
         <v>136.4</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F18</f>
         <v>44813</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G18+1</f>
         <v>44821</v>
       </c>
@@ -1435,8 +1433,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G19&gt;F19, G19-F19, 0)</f>
         <v>8</v>
       </c>
-      <c r="I19" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I18</f>
+      <c r="I19" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J19" s="1" t="n">
@@ -1468,11 +1466,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C20*D20</f>
         <v>135.3</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F19</f>
         <v>44813</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G19+1</f>
         <v>44822</v>
       </c>
@@ -1480,8 +1478,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G20&gt;F20, G20-F20, 0)</f>
         <v>9</v>
       </c>
-      <c r="I20" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I19</f>
+      <c r="I20" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J20" s="1" t="n">
@@ -1513,11 +1511,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C21*D21</f>
         <v>134.20000000000002</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F20</f>
         <v>44813</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G20+1</f>
         <v>44823</v>
       </c>
@@ -1525,8 +1523,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G21&gt;F21, G21-F21, 0)</f>
         <v>10</v>
       </c>
-      <c r="I21" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I20</f>
+      <c r="I21" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J21" s="1" t="n">
@@ -1558,11 +1556,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C22*D22</f>
         <v>133.10000000000002</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F21</f>
         <v>44813</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G21+1</f>
         <v>44824</v>
       </c>
@@ -1570,8 +1568,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G22&gt;F22, G22-F22, 0)</f>
         <v>11</v>
       </c>
-      <c r="I22" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I21</f>
+      <c r="I22" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J22" s="1" t="n">
@@ -1603,11 +1601,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C23*D23</f>
         <v>132</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F22</f>
         <v>44813</v>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G22+1</f>
         <v>44825</v>
       </c>
@@ -1615,8 +1613,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G23&gt;F23, G23-F23, 0)</f>
         <v>12</v>
       </c>
-      <c r="I23" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I22</f>
+      <c r="I23" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J23" s="1" t="n">
@@ -1648,11 +1646,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C24*D24</f>
         <v>130.9</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F23</f>
         <v>44813</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G23+1</f>
         <v>44826</v>
       </c>
@@ -1660,8 +1658,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G24&gt;F24, G24-F24, 0)</f>
         <v>13</v>
       </c>
-      <c r="I24" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I23</f>
+      <c r="I24" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J24" s="1" t="n">
@@ -1693,11 +1691,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C25*D25</f>
         <v>129.8</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F24</f>
         <v>44813</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G24+1</f>
         <v>44827</v>
       </c>
@@ -1705,8 +1703,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G25&gt;F25, G25-F25, 0)</f>
         <v>14</v>
       </c>
-      <c r="I25" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I24</f>
+      <c r="I25" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J25" s="1" t="n">
@@ -1738,11 +1736,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C26*D26</f>
         <v>128.70000000000002</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F25</f>
         <v>44813</v>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G25+1</f>
         <v>44828</v>
       </c>
@@ -1750,8 +1748,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G26&gt;F26, G26-F26, 0)</f>
         <v>15</v>
       </c>
-      <c r="I26" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I25</f>
+      <c r="I26" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J26" s="1" t="n">
@@ -1783,11 +1781,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C27*D27</f>
         <v>127.60000000000001</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F26</f>
         <v>44813</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G26+1</f>
         <v>44829</v>
       </c>
@@ -1795,8 +1793,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G27&gt;F27, G27-F27, 0)</f>
         <v>16</v>
       </c>
-      <c r="I27" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I26</f>
+      <c r="I27" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J27" s="1" t="n">
@@ -1828,11 +1826,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C28*D28</f>
         <v>126.50000000000001</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F27</f>
         <v>44813</v>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G27+1</f>
         <v>44830</v>
       </c>
@@ -1840,8 +1838,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G28&gt;F28, G28-F28, 0)</f>
         <v>17</v>
       </c>
-      <c r="I28" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I27</f>
+      <c r="I28" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J28" s="1" t="n">
@@ -1873,11 +1871,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C29*D29</f>
         <v>125.4</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F28</f>
         <v>44813</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G28+1</f>
         <v>44831</v>
       </c>
@@ -1885,8 +1883,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G29&gt;F29, G29-F29, 0)</f>
         <v>18</v>
       </c>
-      <c r="I29" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I28</f>
+      <c r="I29" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J29" s="1" t="n">
@@ -1918,11 +1916,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C30*D30</f>
         <v>124.30000000000001</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F29</f>
         <v>44813</v>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="G30" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G29+1</f>
         <v>44832</v>
       </c>
@@ -1930,8 +1928,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G30&gt;F30, G30-F30, 0)</f>
         <v>19</v>
       </c>
-      <c r="I30" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I29</f>
+      <c r="I30" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J30" s="1" t="n">
@@ -1963,11 +1961,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C31*D31</f>
         <v>123.20000000000002</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F30</f>
         <v>44813</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G30+1</f>
         <v>44833</v>
       </c>
@@ -1975,8 +1973,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G31&gt;F31, G31-F31, 0)</f>
         <v>20</v>
       </c>
-      <c r="I31" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I30</f>
+      <c r="I31" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J31" s="1" t="n">
@@ -2008,11 +2006,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C32*D32</f>
         <v>122.10000000000001</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F31</f>
         <v>44813</v>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="G32" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G31+1</f>
         <v>44834</v>
       </c>
@@ -2020,8 +2018,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G32&gt;F32, G32-F32, 0)</f>
         <v>21</v>
       </c>
-      <c r="I32" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I31</f>
+      <c r="I32" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J32" s="1" t="n">
@@ -2053,11 +2051,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C33*D33</f>
         <v>121.00000000000001</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F32</f>
         <v>44813</v>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G33" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G32+1</f>
         <v>44835</v>
       </c>
@@ -2065,8 +2063,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G33&gt;F33, G33-F33, 0)</f>
         <v>22</v>
       </c>
-      <c r="I33" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I32</f>
+      <c r="I33" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J33" s="1" t="n">
@@ -2098,11 +2096,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C34*D34</f>
         <v>119.9</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F33</f>
         <v>44813</v>
       </c>
-      <c r="G34" s="4" t="n">
+      <c r="G34" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G33+1</f>
         <v>44836</v>
       </c>
@@ -2110,8 +2108,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G34&gt;F34, G34-F34, 0)</f>
         <v>23</v>
       </c>
-      <c r="I34" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I33</f>
+      <c r="I34" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J34" s="1" t="n">
@@ -2143,11 +2141,11 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C35*D35</f>
         <v>59.400000000000006</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="F35" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F34</f>
         <v>44813</v>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="G35" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G34+1</f>
         <v>44837</v>
       </c>
@@ -2155,8 +2153,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G35&gt;F35, G35-F35, 0)</f>
         <v>24</v>
       </c>
-      <c r="I35" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I34</f>
+      <c r="I35" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J35" s="1" t="n">
@@ -2181,18 +2179,18 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D4/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
         <v>1.1</v>
       </c>
       <c r="E36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C36*D36</f>
         <v>58.85</v>
       </c>
-      <c r="F36" s="4" t="n">
+      <c r="F36" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F35</f>
         <v>44813</v>
       </c>
-      <c r="G36" s="4" t="n">
+      <c r="G36" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G35+1</f>
         <v>44838</v>
       </c>
@@ -2200,8 +2198,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G36&gt;F36, G36-F36, 0)</f>
         <v>25</v>
       </c>
-      <c r="I36" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I35</f>
+      <c r="I36" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J36" s="1" t="n">
@@ -2218,7 +2216,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="1" t="n">
@@ -2226,18 +2224,18 @@
         <v>53</v>
       </c>
       <c r="D37" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D5/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
         <v>1.1</v>
       </c>
       <c r="E37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C37*D37</f>
         <v>58.300000000000004</v>
       </c>
-      <c r="F37" s="4" t="n">
+      <c r="F37" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F36</f>
         <v>44813</v>
       </c>
-      <c r="G37" s="4" t="n">
+      <c r="G37" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G36+1</f>
         <v>44839</v>
       </c>
@@ -2245,8 +2243,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G37&gt;F37, G37-F37, 0)</f>
         <v>26</v>
       </c>
-      <c r="I37" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I36</f>
+      <c r="I37" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J37" s="1" t="n">
@@ -2271,18 +2269,18 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D6/2</f>
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">D3/2</f>
         <v>1.1</v>
       </c>
       <c r="E38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C38*D38</f>
         <v>57.75000000000001</v>
       </c>
-      <c r="F38" s="4" t="n">
+      <c r="F38" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F37</f>
         <v>44813</v>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="G38" s="5" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G37+1</f>
         <v>44840</v>
       </c>
@@ -2290,8 +2288,8 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G38&gt;F38, G38-F38, 0)</f>
         <v>27</v>
       </c>
-      <c r="I38" s="1" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">I37</f>
+      <c r="I38" s="4" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
       <c r="J38" s="1" t="n">
@@ -2306,7 +2304,7 @@
     <row outlineLevel="0" r="39">
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="n"/>
-      <c r="E39" s="6" t="n"/>
+      <c r="E39" s="7" t="n"/>
       <c r="H39" s="1" t="n"/>
       <c r="K39" s="1" t="n"/>
     </row>

--- a/LR3/table_1_2.xlsx
+++ b/LR3/table_1_2.xlsx
@@ -125,28 +125,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">Просрочка, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="282C34" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>дней</t>
-    </r>
+    <t>Просрочка, дней</t>
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
@@ -280,7 +259,16 @@
     <t>Шаймарданова</t>
   </si>
   <si>
-    <t>Кузин</t>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <b val="false"/>
+        <i val="false"/>
+        <color theme="1" tint="0"/>
+        <sz val="12"/>
+      </rPr>
+      <t>Кузин</t>
+    </r>
   </si>
   <si>
     <t>Куропаткин 1</t>
@@ -354,7 +342,7 @@
       <sz val="12"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
       <b val="false"/>
       <i val="false"/>
       <color theme="1" tint="0"/>
@@ -673,7 +661,7 @@
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -710,7 +698,7 @@
       <c r="G3" s="5" t="n">
         <v>44805</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G3&gt;F3, G3-F3, 0)</f>
         <v>0</v>
       </c>
@@ -754,7 +742,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G4&gt;F4, G4-F4, 0)</f>
         <v>0</v>
       </c>
@@ -799,7 +787,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H5" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G5&gt;F5, G5-F5, 0)</f>
         <v>0</v>
       </c>
@@ -844,7 +832,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G5+1</f>
         <v>44808</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H6" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G6&gt;F6, G6-F6, 0)</f>
         <v>0</v>
       </c>
@@ -889,7 +877,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G6+1</f>
         <v>44809</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H7" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G7&gt;F7, G7-F7, 0)</f>
         <v>0</v>
       </c>
@@ -934,7 +922,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G7+1</f>
         <v>44810</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H8" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G8&gt;F8, G8-F8, 0)</f>
         <v>0</v>
       </c>
@@ -979,7 +967,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G8+1</f>
         <v>44811</v>
       </c>
-      <c r="H9" s="1" t="n">
+      <c r="H9" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G9&gt;F9, G9-F9, 0)</f>
         <v>0</v>
       </c>
@@ -1024,7 +1012,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G9+1</f>
         <v>44812</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G10&gt;F10, G10-F10, 0)</f>
         <v>0</v>
       </c>
@@ -1069,7 +1057,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G10+1</f>
         <v>44813</v>
       </c>
-      <c r="H11" s="1" t="n">
+      <c r="H11" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G11&gt;F11, G11-F11, 0)</f>
         <v>0</v>
       </c>
@@ -1114,7 +1102,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G11+1</f>
         <v>44814</v>
       </c>
-      <c r="H12" s="1" t="n">
+      <c r="H12" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G12&gt;F12, G12-F12, 0)</f>
         <v>1</v>
       </c>
@@ -1159,7 +1147,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G12+1</f>
         <v>44815</v>
       </c>
-      <c r="H13" s="1" t="n">
+      <c r="H13" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G13&gt;F13, G13-F13, 0)</f>
         <v>2</v>
       </c>
@@ -1204,7 +1192,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G13+1</f>
         <v>44816</v>
       </c>
-      <c r="H14" s="1" t="n">
+      <c r="H14" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G14&gt;F14, G14-F14, 0)</f>
         <v>3</v>
       </c>
@@ -1249,7 +1237,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G14+1</f>
         <v>44817</v>
       </c>
-      <c r="H15" s="1" t="n">
+      <c r="H15" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G15&gt;F15, G15-F15, 0)</f>
         <v>4</v>
       </c>
@@ -1294,7 +1282,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G15+1</f>
         <v>44818</v>
       </c>
-      <c r="H16" s="1" t="n">
+      <c r="H16" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G16&gt;F16, G16-F16, 0)</f>
         <v>5</v>
       </c>
@@ -1339,7 +1327,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G16+1</f>
         <v>44819</v>
       </c>
-      <c r="H17" s="1" t="n">
+      <c r="H17" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G17&gt;F17, G17-F17, 0)</f>
         <v>6</v>
       </c>
@@ -1384,7 +1372,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G17+1</f>
         <v>44820</v>
       </c>
-      <c r="H18" s="1" t="n">
+      <c r="H18" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G18&gt;F18, G18-F18, 0)</f>
         <v>7</v>
       </c>
@@ -1429,7 +1417,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G18+1</f>
         <v>44821</v>
       </c>
-      <c r="H19" s="1" t="n">
+      <c r="H19" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G19&gt;F19, G19-F19, 0)</f>
         <v>8</v>
       </c>
@@ -1474,7 +1462,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G19+1</f>
         <v>44822</v>
       </c>
-      <c r="H20" s="1" t="n">
+      <c r="H20" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G20&gt;F20, G20-F20, 0)</f>
         <v>9</v>
       </c>
@@ -1519,7 +1507,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G20+1</f>
         <v>44823</v>
       </c>
-      <c r="H21" s="1" t="n">
+      <c r="H21" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G21&gt;F21, G21-F21, 0)</f>
         <v>10</v>
       </c>
@@ -1564,7 +1552,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G21+1</f>
         <v>44824</v>
       </c>
-      <c r="H22" s="1" t="n">
+      <c r="H22" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G22&gt;F22, G22-F22, 0)</f>
         <v>11</v>
       </c>
@@ -1609,7 +1597,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G22+1</f>
         <v>44825</v>
       </c>
-      <c r="H23" s="1" t="n">
+      <c r="H23" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G23&gt;F23, G23-F23, 0)</f>
         <v>12</v>
       </c>
@@ -1654,7 +1642,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G23+1</f>
         <v>44826</v>
       </c>
-      <c r="H24" s="1" t="n">
+      <c r="H24" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G24&gt;F24, G24-F24, 0)</f>
         <v>13</v>
       </c>
@@ -1699,7 +1687,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G24+1</f>
         <v>44827</v>
       </c>
-      <c r="H25" s="1" t="n">
+      <c r="H25" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G25&gt;F25, G25-F25, 0)</f>
         <v>14</v>
       </c>
@@ -1744,7 +1732,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G25+1</f>
         <v>44828</v>
       </c>
-      <c r="H26" s="1" t="n">
+      <c r="H26" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G26&gt;F26, G26-F26, 0)</f>
         <v>15</v>
       </c>
@@ -1789,7 +1777,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G26+1</f>
         <v>44829</v>
       </c>
-      <c r="H27" s="1" t="n">
+      <c r="H27" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G27&gt;F27, G27-F27, 0)</f>
         <v>16</v>
       </c>
@@ -1834,7 +1822,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G27+1</f>
         <v>44830</v>
       </c>
-      <c r="H28" s="1" t="n">
+      <c r="H28" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G28&gt;F28, G28-F28, 0)</f>
         <v>17</v>
       </c>
@@ -1879,7 +1867,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G28+1</f>
         <v>44831</v>
       </c>
-      <c r="H29" s="1" t="n">
+      <c r="H29" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G29&gt;F29, G29-F29, 0)</f>
         <v>18</v>
       </c>
@@ -1924,7 +1912,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G29+1</f>
         <v>44832</v>
       </c>
-      <c r="H30" s="1" t="n">
+      <c r="H30" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G30&gt;F30, G30-F30, 0)</f>
         <v>19</v>
       </c>
@@ -1969,7 +1957,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G30+1</f>
         <v>44833</v>
       </c>
-      <c r="H31" s="1" t="n">
+      <c r="H31" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G31&gt;F31, G31-F31, 0)</f>
         <v>20</v>
       </c>
@@ -2014,7 +2002,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G31+1</f>
         <v>44834</v>
       </c>
-      <c r="H32" s="1" t="n">
+      <c r="H32" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G32&gt;F32, G32-F32, 0)</f>
         <v>21</v>
       </c>
@@ -2059,7 +2047,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G32+1</f>
         <v>44835</v>
       </c>
-      <c r="H33" s="1" t="n">
+      <c r="H33" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G33&gt;F33, G33-F33, 0)</f>
         <v>22</v>
       </c>
@@ -2104,7 +2092,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G33+1</f>
         <v>44836</v>
       </c>
-      <c r="H34" s="1" t="n">
+      <c r="H34" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G34&gt;F34, G34-F34, 0)</f>
         <v>23</v>
       </c>
@@ -2149,7 +2137,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G34+1</f>
         <v>44837</v>
       </c>
-      <c r="H35" s="1" t="n">
+      <c r="H35" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G35&gt;F35, G35-F35, 0)</f>
         <v>24</v>
       </c>
@@ -2194,7 +2182,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G35+1</f>
         <v>44838</v>
       </c>
-      <c r="H36" s="1" t="n">
+      <c r="H36" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G36&gt;F36, G36-F36, 0)</f>
         <v>25</v>
       </c>
@@ -2239,7 +2227,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G36+1</f>
         <v>44839</v>
       </c>
-      <c r="H37" s="1" t="n">
+      <c r="H37" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G37&gt;F37, G37-F37, 0)</f>
         <v>26</v>
       </c>
@@ -2284,7 +2272,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G37+1</f>
         <v>44840</v>
       </c>
-      <c r="H38" s="1" t="n">
+      <c r="H38" s="4" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G38&gt;F38, G38-F38, 0)</f>
         <v>27</v>
       </c>

--- a/LR3/table_1_2.xlsx
+++ b/LR3/table_1_2.xlsx
@@ -12,117 +12,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co w14 x14 w15">
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>№ квартиры</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Фамилия квартиросъёмщика</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="282C34" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Площадь, кв.м.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">Тариф, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="282C34" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>руб./кв.м.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t xml:space="preserve">Сумма, </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="282C34" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>руб.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Срок оплаты</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="000000" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Дата оплаты</t>
-    </r>
+    <t>№ квартиры</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
   </si>
   <si>
     <t>Просрочка, дней</t>
@@ -131,30 +39,10 @@
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="282C34" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Штраф, руб.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="282C34" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Итого, руб.</t>
-    </r>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
   </si>
   <si>
     <t>Абделазиз</t>
@@ -259,16 +147,7 @@
     <t>Шаймарданова</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <color theme="1" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Кузин</t>
-    </r>
+    <t>Кузин</t>
   </si>
   <si>
     <t>Куропаткин 1</t>
@@ -280,17 +159,7 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Times New Roman"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="282C34" tint="0"/>
-        <sz val="12"/>
-      </rPr>
-      <t>Максимальный срок просрочки, дней</t>
-    </r>
+    <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
@@ -303,7 +172,7 @@
   <numFmts>
     <numFmt co:extendedFormatCode="General" formatCode="General" numFmtId="1000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <color theme="1" tint="0"/>
@@ -316,44 +185,13 @@
     </font>
     <font>
       <name val="Times New Roman"/>
-      <b val="false"/>
-      <i val="false"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <color rgb="000000" tint="0"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <color rgb="282C34" tint="0"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
       <color theme="1" tint="0"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Times New Roman"/>
-      <b val="false"/>
-      <i val="false"/>
-      <color theme="1" tint="0"/>
+      <color rgb="282C34" tint="0"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <b val="false"/>
-      <i val="false"/>
-      <color theme="1" tint="0"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -376,28 +214,16 @@
   <cellStyleXfs count="1">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="1" numFmtId="1000" quotePrefix="false"/>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="2" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="3" quotePrefix="false">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="4" quotePrefix="false">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="5" numFmtId="1000" quotePrefix="false">
+    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="3" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="2" numFmtId="14" quotePrefix="false">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="6" quotePrefix="false">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="7" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,25 +445,33 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="9.14062530925693" defaultRowHeight="15" zeroHeight="false"/>
   <cols>
-    <col customWidth="true" hidden="false" max="1" min="1" outlineLevel="0" style="1" width="13.2150780524304"/>
-    <col customWidth="true" hidden="false" max="2" min="2" outlineLevel="0" style="1" width="34.5898016137439"/>
-    <col customWidth="true" hidden="false" max="3" min="3" outlineLevel="0" style="1" width="14.7228386355935"/>
-    <col customWidth="true" hidden="false" max="4" min="4" outlineLevel="0" style="1" width="16.7627500128143"/>
-    <col customWidth="true" hidden="false" max="5" min="5" outlineLevel="0" style="1" width="11.973392866296"/>
-    <col customWidth="true" hidden="false" max="6" min="6" outlineLevel="0" style="1" width="12.7716190573824"/>
-    <col customWidth="true" hidden="false" max="7" min="7" outlineLevel="0" style="1" width="12.5055436603536"/>
-    <col customWidth="true" hidden="false" max="8" min="8" outlineLevel="0" style="1" width="16.8514418118239"/>
-    <col customWidth="true" hidden="false" max="9" min="9" outlineLevel="0" style="1" width="18.3592023949871"/>
-    <col customWidth="true" hidden="false" max="10" min="10" outlineLevel="0" style="1" width="12.2394682633248"/>
-    <col customWidth="true" hidden="false" max="11" min="11" outlineLevel="0" style="1" width="11.8847010672864"/>
+    <col customWidth="true" hidden="false" max="1" min="1" outlineLevel="0" width="12.5942354593632"/>
+    <col customWidth="true" hidden="false" max="2" min="2" outlineLevel="0" width="29.2682936731679"/>
+    <col customWidth="true" hidden="false" max="3" min="3" outlineLevel="0" width="15.8758320227183"/>
+    <col customWidth="true" hidden="false" max="4" min="4" outlineLevel="0" width="18.9800449880543"/>
+    <col customWidth="true" hidden="false" max="5" min="5" outlineLevel="0" width="13.6585370474783"/>
+    <col customWidth="true" hidden="false" max="6" min="6" outlineLevel="0" width="14.4567632385647"/>
+    <col customWidth="true" hidden="false" max="7" min="7" outlineLevel="0" width="15.6097566256895"/>
+    <col customWidth="true" hidden="false" max="8" min="8" outlineLevel="0" width="18.2705105959775"/>
+    <col customWidth="true" hidden="false" max="9" min="9" outlineLevel="0" width="20.5764973702271"/>
+    <col customWidth="true" hidden="false" max="10" min="10" outlineLevel="0" width="15.1662976306415"/>
+    <col customWidth="true" hidden="false" max="11" min="11" outlineLevel="0" width="12.6829272583728"/>
   </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
       <c r="A1" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
       <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
       <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
@@ -646,7 +480,7 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -655,22 +489,22 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -692,17 +526,17 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C3*D3</f>
         <v>154</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="5" t="n">
+      <c r="F3" s="3" t="n">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>44805</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G3&gt;F3, G3-F3, 0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="4" t="n">
+      <c r="I3" s="1" t="n">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="n">
@@ -734,19 +568,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C4*D4</f>
         <v>152.9</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F3</f>
-        <v>44813</v>
-      </c>
-      <c r="G4" s="5" t="n">
+      <c r="F4" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G4" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G4&gt;F4, G4-F4, 0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -779,19 +613,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C5*D5</f>
         <v>151.8</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F4</f>
-        <v>44813</v>
-      </c>
-      <c r="G5" s="5" t="n">
+      <c r="F5" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G5&gt;F5, G5-F5, 0)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="4" t="n">
+      <c r="I5" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -824,19 +658,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C6*D6</f>
         <v>150.70000000000002</v>
       </c>
-      <c r="F6" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F5</f>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="5" t="n">
+      <c r="F6" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G5+1</f>
         <v>44808</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G6&gt;F6, G6-F6, 0)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="4" t="n">
+      <c r="I6" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -869,19 +703,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C7*D7</f>
         <v>149.60000000000002</v>
       </c>
-      <c r="F7" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F6</f>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="5" t="n">
+      <c r="F7" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G6+1</f>
         <v>44809</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G7&gt;F7, G7-F7, 0)</f>
         <v>0</v>
       </c>
-      <c r="I7" s="4" t="n">
+      <c r="I7" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -914,19 +748,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C8*D8</f>
         <v>148.5</v>
       </c>
-      <c r="F8" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F7</f>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="5" t="n">
+      <c r="F8" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G7+1</f>
         <v>44810</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G8&gt;F8, G8-F8, 0)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="4" t="n">
+      <c r="I8" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -959,19 +793,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C9*D9</f>
         <v>147.4</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F8</f>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="5" t="n">
+      <c r="F9" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G8+1</f>
         <v>44811</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G9&gt;F9, G9-F9, 0)</f>
         <v>0</v>
       </c>
-      <c r="I9" s="4" t="n">
+      <c r="I9" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1004,19 +838,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C10*D10</f>
         <v>146.3</v>
       </c>
-      <c r="F10" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F9</f>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="5" t="n">
+      <c r="F10" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G9+1</f>
         <v>44812</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G10&gt;F10, G10-F10, 0)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="4" t="n">
+      <c r="I10" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1049,19 +883,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C11*D11</f>
         <v>145.20000000000002</v>
       </c>
-      <c r="F11" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F10</f>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="5" t="n">
+      <c r="F11" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G10+1</f>
         <v>44813</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G11&gt;F11, G11-F11, 0)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="4" t="n">
+      <c r="I11" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1094,19 +928,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C12*D12</f>
         <v>144.10000000000002</v>
       </c>
-      <c r="F12" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F11</f>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="5" t="n">
+      <c r="F12" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G11+1</f>
         <v>44814</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G12&gt;F12, G12-F12, 0)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="4" t="n">
+      <c r="I12" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1139,19 +973,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C13*D13</f>
         <v>143</v>
       </c>
-      <c r="F13" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F12</f>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="5" t="n">
+      <c r="F13" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G12+1</f>
         <v>44815</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G13&gt;F13, G13-F13, 0)</f>
         <v>2</v>
       </c>
-      <c r="I13" s="4" t="n">
+      <c r="I13" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1184,19 +1018,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C14*D14</f>
         <v>141.9</v>
       </c>
-      <c r="F14" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F13</f>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="5" t="n">
+      <c r="F14" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G13+1</f>
         <v>44816</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G14&gt;F14, G14-F14, 0)</f>
         <v>3</v>
       </c>
-      <c r="I14" s="4" t="n">
+      <c r="I14" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1229,19 +1063,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C15*D15</f>
         <v>140.8</v>
       </c>
-      <c r="F15" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F14</f>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="5" t="n">
+      <c r="F15" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G14+1</f>
         <v>44817</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G15&gt;F15, G15-F15, 0)</f>
         <v>4</v>
       </c>
-      <c r="I15" s="4" t="n">
+      <c r="I15" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1274,19 +1108,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C16*D16</f>
         <v>139.70000000000002</v>
       </c>
-      <c r="F16" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F15</f>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="5" t="n">
+      <c r="F16" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G15+1</f>
         <v>44818</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G16&gt;F16, G16-F16, 0)</f>
         <v>5</v>
       </c>
-      <c r="I16" s="4" t="n">
+      <c r="I16" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1319,19 +1153,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C17*D17</f>
         <v>138.60000000000002</v>
       </c>
-      <c r="F17" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F16</f>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="5" t="n">
+      <c r="F17" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G16+1</f>
         <v>44819</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G17&gt;F17, G17-F17, 0)</f>
         <v>6</v>
       </c>
-      <c r="I17" s="4" t="n">
+      <c r="I17" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1364,19 +1198,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C18*D18</f>
         <v>137.5</v>
       </c>
-      <c r="F18" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F17</f>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="5" t="n">
+      <c r="F18" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G17+1</f>
         <v>44820</v>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G18&gt;F18, G18-F18, 0)</f>
         <v>7</v>
       </c>
-      <c r="I18" s="4" t="n">
+      <c r="I18" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1409,19 +1243,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C19*D19</f>
         <v>136.4</v>
       </c>
-      <c r="F19" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F18</f>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="5" t="n">
+      <c r="F19" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G18+1</f>
         <v>44821</v>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G19&gt;F19, G19-F19, 0)</f>
         <v>8</v>
       </c>
-      <c r="I19" s="4" t="n">
+      <c r="I19" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1454,19 +1288,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C20*D20</f>
         <v>135.3</v>
       </c>
-      <c r="F20" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F19</f>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="5" t="n">
+      <c r="F20" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G19+1</f>
         <v>44822</v>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="H20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G20&gt;F20, G20-F20, 0)</f>
         <v>9</v>
       </c>
-      <c r="I20" s="4" t="n">
+      <c r="I20" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1499,19 +1333,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C21*D21</f>
         <v>134.20000000000002</v>
       </c>
-      <c r="F21" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F20</f>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="5" t="n">
+      <c r="F21" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G20+1</f>
         <v>44823</v>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G21&gt;F21, G21-F21, 0)</f>
         <v>10</v>
       </c>
-      <c r="I21" s="4" t="n">
+      <c r="I21" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1544,19 +1378,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C22*D22</f>
         <v>133.10000000000002</v>
       </c>
-      <c r="F22" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F21</f>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="5" t="n">
+      <c r="F22" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G21+1</f>
         <v>44824</v>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="H22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G22&gt;F22, G22-F22, 0)</f>
         <v>11</v>
       </c>
-      <c r="I22" s="4" t="n">
+      <c r="I22" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1589,19 +1423,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C23*D23</f>
         <v>132</v>
       </c>
-      <c r="F23" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F22</f>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="5" t="n">
+      <c r="F23" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G22+1</f>
         <v>44825</v>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="H23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G23&gt;F23, G23-F23, 0)</f>
         <v>12</v>
       </c>
-      <c r="I23" s="4" t="n">
+      <c r="I23" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1634,19 +1468,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C24*D24</f>
         <v>130.9</v>
       </c>
-      <c r="F24" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F23</f>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="5" t="n">
+      <c r="F24" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G23+1</f>
         <v>44826</v>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G24&gt;F24, G24-F24, 0)</f>
         <v>13</v>
       </c>
-      <c r="I24" s="4" t="n">
+      <c r="I24" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1679,19 +1513,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C25*D25</f>
         <v>129.8</v>
       </c>
-      <c r="F25" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F24</f>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="5" t="n">
+      <c r="F25" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G24+1</f>
         <v>44827</v>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G25&gt;F25, G25-F25, 0)</f>
         <v>14</v>
       </c>
-      <c r="I25" s="4" t="n">
+      <c r="I25" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1724,19 +1558,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C26*D26</f>
         <v>128.70000000000002</v>
       </c>
-      <c r="F26" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F25</f>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="5" t="n">
+      <c r="F26" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G25+1</f>
         <v>44828</v>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G26&gt;F26, G26-F26, 0)</f>
         <v>15</v>
       </c>
-      <c r="I26" s="4" t="n">
+      <c r="I26" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1769,19 +1603,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C27*D27</f>
         <v>127.60000000000001</v>
       </c>
-      <c r="F27" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F26</f>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="5" t="n">
+      <c r="F27" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G26+1</f>
         <v>44829</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G27&gt;F27, G27-F27, 0)</f>
         <v>16</v>
       </c>
-      <c r="I27" s="4" t="n">
+      <c r="I27" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1814,19 +1648,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C28*D28</f>
         <v>126.50000000000001</v>
       </c>
-      <c r="F28" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F27</f>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="5" t="n">
+      <c r="F28" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G27+1</f>
         <v>44830</v>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="H28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G28&gt;F28, G28-F28, 0)</f>
         <v>17</v>
       </c>
-      <c r="I28" s="4" t="n">
+      <c r="I28" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1859,19 +1693,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C29*D29</f>
         <v>125.4</v>
       </c>
-      <c r="F29" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F28</f>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="5" t="n">
+      <c r="F29" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G28+1</f>
         <v>44831</v>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G29&gt;F29, G29-F29, 0)</f>
         <v>18</v>
       </c>
-      <c r="I29" s="4" t="n">
+      <c r="I29" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1904,19 +1738,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C30*D30</f>
         <v>124.30000000000001</v>
       </c>
-      <c r="F30" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F29</f>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="5" t="n">
+      <c r="F30" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G29+1</f>
         <v>44832</v>
       </c>
-      <c r="H30" s="4" t="n">
+      <c r="H30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G30&gt;F30, G30-F30, 0)</f>
         <v>19</v>
       </c>
-      <c r="I30" s="4" t="n">
+      <c r="I30" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1949,19 +1783,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C31*D31</f>
         <v>123.20000000000002</v>
       </c>
-      <c r="F31" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F30</f>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="5" t="n">
+      <c r="F31" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G30+1</f>
         <v>44833</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G31&gt;F31, G31-F31, 0)</f>
         <v>20</v>
       </c>
-      <c r="I31" s="4" t="n">
+      <c r="I31" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -1994,19 +1828,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C32*D32</f>
         <v>122.10000000000001</v>
       </c>
-      <c r="F32" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F31</f>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="5" t="n">
+      <c r="F32" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G31+1</f>
         <v>44834</v>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G32&gt;F32, G32-F32, 0)</f>
         <v>21</v>
       </c>
-      <c r="I32" s="4" t="n">
+      <c r="I32" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -2039,19 +1873,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C33*D33</f>
         <v>121.00000000000001</v>
       </c>
-      <c r="F33" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F32</f>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="5" t="n">
+      <c r="F33" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G32+1</f>
         <v>44835</v>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G33&gt;F33, G33-F33, 0)</f>
         <v>22</v>
       </c>
-      <c r="I33" s="4" t="n">
+      <c r="I33" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -2084,19 +1918,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C34*D34</f>
         <v>119.9</v>
       </c>
-      <c r="F34" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F33</f>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="5" t="n">
+      <c r="F34" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G33+1</f>
         <v>44836</v>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G34&gt;F34, G34-F34, 0)</f>
         <v>23</v>
       </c>
-      <c r="I34" s="4" t="n">
+      <c r="I34" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -2129,19 +1963,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C35*D35</f>
         <v>59.400000000000006</v>
       </c>
-      <c r="F35" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F34</f>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="5" t="n">
+      <c r="F35" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G34+1</f>
         <v>44837</v>
       </c>
-      <c r="H35" s="4" t="n">
+      <c r="H35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G35&gt;F35, G35-F35, 0)</f>
         <v>24</v>
       </c>
-      <c r="I35" s="4" t="n">
+      <c r="I35" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -2174,19 +2008,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C36*D36</f>
         <v>58.85</v>
       </c>
-      <c r="F36" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F35</f>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="5" t="n">
+      <c r="F36" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G35+1</f>
         <v>44838</v>
       </c>
-      <c r="H36" s="4" t="n">
+      <c r="H36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G36&gt;F36, G36-F36, 0)</f>
         <v>25</v>
       </c>
-      <c r="I36" s="4" t="n">
+      <c r="I36" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -2204,7 +2038,7 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">A36+1</f>
         <v>35</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="1" t="n">
@@ -2219,19 +2053,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C37*D37</f>
         <v>58.300000000000004</v>
       </c>
-      <c r="F37" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F36</f>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="5" t="n">
+      <c r="F37" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G36+1</f>
         <v>44839</v>
       </c>
-      <c r="H37" s="4" t="n">
+      <c r="H37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G37&gt;F37, G37-F37, 0)</f>
         <v>26</v>
       </c>
-      <c r="I37" s="4" t="n">
+      <c r="I37" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -2264,19 +2098,19 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">C38*D38</f>
         <v>57.75000000000001</v>
       </c>
-      <c r="F38" s="5" t="n">
-        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">F37</f>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="5" t="n">
+      <c r="F38" s="3" t="n">
+        <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$F$3</f>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="3" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">G37+1</f>
         <v>44840</v>
       </c>
-      <c r="H38" s="4" t="n">
+      <c r="H38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">IF(G38&gt;F38, G38-F38, 0)</f>
         <v>27</v>
       </c>
-      <c r="I38" s="4" t="n">
+      <c r="I38" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">$I$3</f>
         <v>10</v>
       </c>
@@ -2290,14 +2124,21 @@
       </c>
     </row>
     <row outlineLevel="0" r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="2" t="n"/>
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="n"/>
-      <c r="E39" s="7" t="n"/>
+      <c r="E39" s="1" t="n"/>
+      <c r="F39" s="1" t="n"/>
+      <c r="G39" s="1" t="n"/>
       <c r="H39" s="1" t="n"/>
+      <c r="I39" s="1" t="n"/>
+      <c r="J39" s="1" t="n"/>
       <c r="K39" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="40">
-      <c r="B40" s="1" t="s">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="1" t="n">
@@ -2305,8 +2146,16 @@
         <v>8396</v>
       </c>
       <c r="D40" s="1" t="n"/>
+      <c r="E40" s="1" t="n"/>
+      <c r="F40" s="1" t="n"/>
+      <c r="G40" s="1" t="n"/>
+      <c r="H40" s="1" t="n"/>
+      <c r="I40" s="1" t="n"/>
+      <c r="J40" s="1" t="n"/>
+      <c r="K40" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="41">
+      <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
@@ -2314,17 +2163,35 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
+      <c r="D41" s="1" t="n"/>
+      <c r="E41" s="1" t="n"/>
+      <c r="F41" s="1" t="n"/>
+      <c r="G41" s="1" t="n"/>
+      <c r="H41" s="1" t="n"/>
+      <c r="I41" s="1" t="n"/>
+      <c r="J41" s="1" t="n"/>
+      <c r="K41" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="42">
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="1" t="n">
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(H3:H38)</f>
         <v>27</v>
       </c>
+      <c r="D42" s="1" t="n"/>
+      <c r="E42" s="1" t="n"/>
+      <c r="F42" s="1" t="n"/>
+      <c r="G42" s="1" t="n"/>
+      <c r="H42" s="1" t="n"/>
+      <c r="I42" s="1" t="n"/>
+      <c r="J42" s="1" t="n"/>
+      <c r="K42" s="1" t="n"/>
     </row>
     <row outlineLevel="0" r="43">
+      <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="s">
         <v>50</v>
       </c>
@@ -2332,6 +2199,14 @@
         <f aca="false" ca="false" dt2D="false" dtr="false" t="normal">MAX(K3:K38)</f>
         <v>349.9</v>
       </c>
+      <c r="D43" s="1" t="n"/>
+      <c r="E43" s="1" t="n"/>
+      <c r="F43" s="1" t="n"/>
+      <c r="G43" s="1" t="n"/>
+      <c r="H43" s="1" t="n"/>
+      <c r="I43" s="1" t="n"/>
+      <c r="J43" s="1" t="n"/>
+      <c r="K43" s="1" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.300000011920929" header="0.300000011920929" left="0.700000047683716" right="0.700000047683716" top="0.75"/>
